--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_0.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_0.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13476767.25690909</v>
+        <v>10100831.99999656</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30789066.36991068</v>
+        <v>27413131.11299811</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1.398707672358336e-10</v>
+        <v>1806603.604278322</v>
       </c>
     </row>
     <row r="11">
@@ -7985,13 +7985,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -8149,7 +8149,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8225,13 +8225,13 @@
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -8295,16 +8295,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8377,13 +8377,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -8456,16 +8456,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -8532,22 +8532,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -8614,16 +8614,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -8690,7 +8690,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8699,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8769,25 +8769,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8851,16 +8851,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8930,19 +8930,19 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -9091,13 +9091,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9173,13 +9173,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9255,13 +9255,13 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9325,16 +9325,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9401,16 +9401,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9483,7 +9483,7 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9498,7 +9498,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9562,13 +9562,13 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9638,10 +9638,10 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,7 +9650,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9717,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9735,7 +9735,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9799,16 +9799,16 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
@@ -9881,13 +9881,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9957,22 +9957,22 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -10036,7 +10036,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10127,7 +10127,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10276,13 +10276,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10352,16 +10352,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10428,19 +10428,19 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10586,22 +10586,22 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10668,19 +10668,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10747,13 +10747,13 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
@@ -10829,10 +10829,10 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10911,13 +10911,13 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10984,16 +10984,16 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11063,19 +11063,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -11139,25 +11139,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11221,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -11230,7 +11230,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -11297,22 +11297,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11379,22 +11379,22 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -11458,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
@@ -11467,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -22577,13 +22577,13 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
@@ -22665,10 +22665,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>145.679503963964</v>
@@ -22732,7 +22732,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L4" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
         <v>138.9257839476051</v>
@@ -22741,7 +22741,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>137.7280040491476</v>
@@ -22817,13 +22817,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>222.3056898744495</v>
@@ -22887,16 +22887,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
@@ -22905,7 +22905,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>145.679503963964</v>
@@ -22969,13 +22969,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L7" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>138.4565384518428</v>
@@ -23048,16 +23048,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>231.2329957552695</v>
@@ -23124,22 +23124,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -23206,16 +23206,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L10" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>137.7280040491476</v>
@@ -23282,7 +23282,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>235.7664149699872</v>
@@ -23291,13 +23291,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>222.3056898744495</v>
@@ -23361,25 +23361,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -23443,16 +23443,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
         <v>137.7280040491476</v>
@@ -23522,19 +23522,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>222.3056898744495</v>
@@ -23598,22 +23598,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -23683,13 +23683,13 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>137.7280040491476</v>
@@ -23765,13 +23765,13 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>222.3056898744495</v>
@@ -23835,10 +23835,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
@@ -23847,13 +23847,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -23917,16 +23917,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>137.7280040491476</v>
@@ -23993,16 +23993,16 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>230.0982114216867</v>
@@ -24075,7 +24075,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>142.1340339220183</v>
@@ -24090,7 +24090,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -24154,13 +24154,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>138.4565384518428</v>
@@ -24230,10 +24230,10 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>230.3462332272727</v>
@@ -24242,7 +24242,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -24309,7 +24309,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -24327,7 +24327,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -24391,16 +24391,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>137.7280040491476</v>
@@ -24473,13 +24473,13 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>231.2329957552695</v>
@@ -24549,22 +24549,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -24628,7 +24628,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L28" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
         <v>138.9257839476051</v>
@@ -24637,7 +24637,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>137.7280040491476</v>
@@ -24704,7 +24704,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K29" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>235.7664149699872</v>
@@ -24719,7 +24719,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>222.3056898744495</v>
@@ -24783,16 +24783,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
@@ -24868,13 +24868,13 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>137.7280040491476</v>
@@ -24944,16 +24944,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -25020,19 +25020,19 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -25178,22 +25178,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K35" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>222.3056898744495</v>
@@ -25260,19 +25260,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -25339,13 +25339,13 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L37" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>138.4565384518428</v>
@@ -25421,10 +25421,10 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>230.0982114216867</v>
@@ -25503,13 +25503,13 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -25576,16 +25576,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L40" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>137.7280040491476</v>
@@ -25655,19 +25655,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>222.3056898744495</v>
@@ -25731,25 +25731,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -25813,7 +25813,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L43" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>138.9257839476051</v>
@@ -25822,7 +25822,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>137.7280040491476</v>
@@ -25889,22 +25889,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>222.3056898744495</v>
@@ -25971,22 +25971,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -26050,7 +26050,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>138.9257839476051</v>
@@ -26059,7 +26059,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>137.7280040491476</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>127905.0305847206</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>153989.8918785837</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>165271.7635381935</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>162251.3096600827</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>229739.4766574488</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>122959.0687388276</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>132233.2011121307</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>138845.9479281348</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>147931.3206009706</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>104773.4548881991</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>160294.2339306133</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>168663.9142413442</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>101046.1400588796</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>224312.8699254378</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-1.209627953357994e-11</v>
+        <v>222937.0560952137</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_0.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_0.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10100831.99999656</v>
+        <v>10477853.63860845</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27413131.11299811</v>
+        <v>27790152.75161</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1806603.604278322</v>
+        <v>1660558.544196488</v>
       </c>
     </row>
     <row r="11">
@@ -7979,22 +7981,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8058,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8067,16 +8069,16 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -8143,13 +8145,13 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -8216,7 +8218,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -8386,7 +8388,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -8453,16 +8455,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
@@ -8535,7 +8537,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
@@ -8547,10 +8549,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -8623,7 +8625,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -8690,13 +8692,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N11" t="n">
         <v>229.4130635965909</v>
@@ -8775,19 +8777,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -8851,7 +8853,7 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -9009,22 +9011,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -9094,10 +9096,10 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -9164,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -9325,16 +9327,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -9401,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9410,7 +9412,7 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9492,13 +9494,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9562,10 +9564,10 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>127.6855444652332</v>
@@ -9638,19 +9640,19 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9717,7 +9719,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9732,10 +9734,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -9799,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>127.6855444652332</v>
@@ -9878,7 +9880,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M26" t="n">
         <v>230.3462332272727</v>
@@ -9887,7 +9889,7 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9957,7 +9959,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -10045,7 +10047,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -10115,13 +10117,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10197,16 +10199,16 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10273,16 +10275,16 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M31" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -10352,16 +10354,16 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10431,7 +10433,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>142.1340339220183</v>
@@ -10440,10 +10442,10 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10510,16 +10512,16 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -10589,7 +10591,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,7 +10603,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10665,13 +10667,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>131.3417120833333</v>
@@ -10750,13 +10752,13 @@
         <v>134.8846762812383</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10823,13 +10825,13 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
@@ -10902,7 +10904,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10911,16 +10913,16 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -10990,10 +10992,10 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -11063,13 +11065,13 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>230.0982114216867</v>
@@ -11142,19 +11144,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11227,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O43" t="n">
         <v>138.4565384518428</v>
@@ -11297,10 +11299,10 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,10 +11311,10 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -11388,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -11458,16 +11460,16 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -22571,22 +22573,22 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>222.3056898744495</v>
@@ -22650,7 +22652,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
@@ -22659,16 +22661,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>145.679503963964</v>
@@ -22735,13 +22737,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
         <v>137.7280040491476</v>
@@ -22808,7 +22810,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>235.7664149699872</v>
@@ -22896,16 +22898,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>145.679503963964</v>
@@ -22978,7 +22980,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>137.7280040491476</v>
@@ -23045,16 +23047,16 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -23127,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -23139,10 +23141,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>145.679503963964</v>
@@ -23215,7 +23217,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
         <v>137.7280040491476</v>
@@ -23282,13 +23284,13 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -23367,19 +23369,19 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -23443,7 +23445,7 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
         <v>138.9257839476051</v>
@@ -23522,7 +23524,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23601,22 +23603,22 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -23686,10 +23688,10 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
         <v>137.7280040491476</v>
@@ -23756,10 +23758,10 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K17" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
@@ -23835,25 +23837,25 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -23917,16 +23919,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
         <v>137.7280040491476</v>
@@ -23993,7 +23995,7 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
         <v>235.7664149699872</v>
@@ -24002,7 +24004,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
         <v>230.0982114216867</v>
@@ -24084,13 +24086,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -24154,10 +24156,10 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -24230,19 +24232,19 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
         <v>231.2329957552695</v>
@@ -24309,7 +24311,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
@@ -24324,10 +24326,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -24391,10 +24393,10 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24470,7 +24472,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -24479,7 +24481,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
         <v>231.2329957552695</v>
@@ -24549,7 +24551,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>142.1340339220183</v>
@@ -24561,7 +24563,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -24637,7 +24639,7 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
         <v>137.7280040491476</v>
@@ -24707,13 +24709,13 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>230.0982114216867</v>
@@ -24789,16 +24791,16 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -24865,16 +24867,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L31" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
         <v>137.7280040491476</v>
@@ -24944,16 +24946,16 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
         <v>231.2329957552695</v>
@@ -25023,7 +25025,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,10 +25034,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -25102,16 +25104,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L34" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>137.7280040491476</v>
@@ -25181,7 +25183,7 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
         <v>230.3462332272727</v>
@@ -25193,7 +25195,7 @@
         <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
         <v>222.3056898744495</v>
@@ -25257,13 +25259,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -25342,13 +25344,13 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>137.7280040491476</v>
@@ -25415,13 +25417,13 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K38" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -25494,7 +25496,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>138.5543797798742</v>
@@ -25503,16 +25505,16 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -25582,10 +25584,10 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
         <v>137.7280040491476</v>
@@ -25655,13 +25657,13 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -25734,19 +25736,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -25819,7 +25821,7 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -25889,10 +25891,10 @@
         <v>181.0459045266863</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
         <v>230.3462332272727</v>
@@ -25901,10 +25903,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>222.3056898744495</v>
@@ -25980,10 +25982,10 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -26050,16 +26052,16 @@
         <v>129.0132581705354</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
         <v>137.7280040491476</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>127905.0305847206</v>
+        <v>169722.8443994691</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>153989.8918785837</v>
+        <v>180272.281100504</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>165271.7635381935</v>
+        <v>180410.1073307086</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>162251.3096600827</v>
+        <v>168755.2063118727</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>229739.4766574488</v>
+        <v>184990.0739259342</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>122959.0687388276</v>
+        <v>148156.0202707562</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>132233.2011121307</v>
+        <v>68252.30050368658</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>138845.9479281348</v>
+        <v>86048.36040653873</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>147931.3206009706</v>
+        <v>122684.0907304616</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104773.4548881991</v>
+        <v>217614.6525080305</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>160294.2339306133</v>
+        <v>95631.06266985489</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>168663.9142413442</v>
+        <v>130672.3410894641</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>101046.1400588796</v>
+        <v>132935.3322211216</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>224312.8699254378</v>
+        <v>144089.0087233852</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>222937.0560952137</v>
+        <v>69005.85061866768</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_0.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-91989.55041322313</v>
+        <v>-218750.5042824882</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10477853.63860845</v>
+        <v>5413711.842050619</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27790152.75161</v>
+        <v>22726010.95505212</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1660558.544196488</v>
+        <v>4350924.71095404</v>
       </c>
     </row>
     <row r="11">
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
         <v>220.0898510449805</v>
@@ -7987,22 +7987,22 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N2" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P2" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,19 +8054,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
         <v>131.3417120833333</v>
@@ -8075,13 +8075,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>134.8846762812383</v>
@@ -8148,16 +8148,16 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,16 +8215,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N5" t="n">
         <v>229.4130635965909</v>
@@ -8236,10 +8236,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,10 +8373,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L7" t="n">
         <v>134.8846762812383</v>
@@ -8391,10 +8391,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
         <v>220.0898510449805</v>
@@ -8464,19 +8464,19 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O8" t="n">
         <v>230.0982114216867</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8528,34 +8528,34 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,28 +8610,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N10" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8689,13 +8689,13 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M11" t="n">
         <v>230.3462332272727</v>
@@ -8704,16 +8704,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P11" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8765,10 +8765,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -8789,10 +8789,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8847,16 +8847,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N13" t="n">
         <v>127.6855444652332</v>
@@ -8865,10 +8865,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -8947,10 +8947,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,16 +9002,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
@@ -9020,7 +9020,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -9029,7 +9029,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9084,28 +9084,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M16" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>220.0898510449805</v>
@@ -9172,22 +9172,22 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,34 +9239,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M20" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
@@ -9500,10 +9500,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N22" t="n">
         <v>127.6855444652332</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9637,10 +9637,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L23" t="n">
         <v>235.7664149699872</v>
@@ -9649,19 +9649,19 @@
         <v>230.3462332272727</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,34 +9713,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9795,16 +9795,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N25" t="n">
         <v>127.6855444652332</v>
@@ -9813,10 +9813,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L26" t="n">
         <v>235.7664149699872</v>
@@ -9889,16 +9889,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,34 +9950,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L28" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>220.0898510449805</v>
@@ -10126,16 +10126,16 @@
         <v>229.4130635965909</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P29" t="n">
         <v>231.2329957552695</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -10202,19 +10202,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10269,10 +10269,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L31" t="n">
         <v>134.8846762812383</v>
@@ -10284,13 +10284,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N32" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
@@ -10439,19 +10439,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10506,10 +10506,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L34" t="n">
         <v>134.8846762812383</v>
@@ -10524,10 +10524,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>220.0898510449805</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N35" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
@@ -10679,16 +10679,16 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10743,10 +10743,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L37" t="n">
         <v>134.8846762812383</v>
@@ -10755,16 +10755,16 @@
         <v>138.9257839476051</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O37" t="n">
         <v>138.4565384518428</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>220.0898510449805</v>
@@ -10831,22 +10831,22 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N38" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,34 +10898,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10980,10 +10980,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L40" t="n">
         <v>134.8846762812383</v>
@@ -10995,13 +10995,13 @@
         <v>127.6855444652332</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11059,19 +11059,19 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M41" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
         <v>230.0982114216867</v>
@@ -11080,10 +11080,10 @@
         <v>231.2329957552695</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11135,10 +11135,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
@@ -11147,22 +11147,22 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,16 +11217,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L43" t="n">
         <v>134.8846762812383</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>138.9257839476051</v>
       </c>
       <c r="N43" t="n">
         <v>127.6855444652332</v>
@@ -11235,10 +11235,10 @@
         <v>138.4565384518428</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N44" t="n">
         <v>229.4130635965909</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>138.5543797798742</v>
@@ -11387,19 +11387,19 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>33.63624132272333</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>134.8846762812383</v>
       </c>
       <c r="M46" t="n">
         <v>138.9257839476051</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>127.6855444652332</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>138.4565384518428</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22570,7 +22570,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22579,22 +22579,22 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -22646,19 +22646,19 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -22667,13 +22667,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22728,10 +22728,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22740,16 +22740,16 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22807,16 +22807,16 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -22828,10 +22828,10 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -22883,34 +22883,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
@@ -22965,10 +22965,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23056,19 +23056,19 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23120,34 +23120,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
@@ -23202,28 +23202,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -23281,13 +23281,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -23296,16 +23296,16 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R11" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
         <v>209.0200695862453</v>
@@ -23357,10 +23357,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23439,16 +23439,16 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
         <v>177.2933913771695</v>
@@ -23518,13 +23518,13 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -23539,10 +23539,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
         <v>209.0200695862453</v>
@@ -23594,16 +23594,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23612,7 +23612,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>171.6831711038378</v>
@@ -23676,28 +23676,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
         <v>177.2933913771695</v>
@@ -23755,7 +23755,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23764,22 +23764,22 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
@@ -23831,34 +23831,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23913,28 +23913,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J19" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K19" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L19" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
         <v>177.2933913771695</v>
@@ -23992,31 +23992,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K20" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24068,22 +24068,22 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -24092,10 +24092,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>171.6831711038378</v>
@@ -24150,28 +24150,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J22" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K22" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L22" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q22" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
         <v>177.2933913771695</v>
@@ -24229,10 +24229,10 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K23" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -24241,19 +24241,19 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
         <v>209.0200695862453</v>
@@ -24305,34 +24305,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>171.6831711038378</v>
@@ -24387,16 +24387,16 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J25" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K25" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L25" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -24405,10 +24405,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24466,10 +24466,10 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -24481,16 +24481,16 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
@@ -24542,34 +24542,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24624,28 +24624,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J28" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K28" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q28" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R28" t="n">
         <v>177.2933913771695</v>
@@ -24703,7 +24703,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24718,16 +24718,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24794,19 +24794,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
@@ -24861,10 +24861,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J31" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K31" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -24876,13 +24876,13 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
         <v>177.2933913771695</v>
@@ -24940,31 +24940,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -25016,10 +25016,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25031,19 +25031,19 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
@@ -25098,10 +25098,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K34" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -25116,10 +25116,10 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q34" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R34" t="n">
         <v>177.2933913771695</v>
@@ -25177,31 +25177,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
@@ -25253,10 +25253,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25271,16 +25271,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25335,10 +25335,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -25347,16 +25347,16 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q37" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R37" t="n">
         <v>177.2933913771695</v>
@@ -25414,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25423,22 +25423,22 @@
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
         <v>209.0200695862453</v>
@@ -25490,34 +25490,34 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25572,10 +25572,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J40" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K40" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -25587,13 +25587,13 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q40" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
         <v>177.2933913771695</v>
@@ -25651,19 +25651,19 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -25672,10 +25672,10 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
         <v>209.0200695862453</v>
@@ -25727,10 +25727,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25739,22 +25739,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
         <v>171.6831711038378</v>
@@ -25809,16 +25809,16 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J43" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K43" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>138.9257839476051</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -25827,10 +25827,10 @@
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25888,31 +25888,31 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>181.0459045266863</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>235.7664149699872</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>230.3462332272727</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>222.3056898744495</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>215.5855378141321</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25964,13 +25964,13 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25979,19 +25979,19 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>171.6831711038378</v>
@@ -26046,28 +26046,28 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J46" t="n">
-        <v>126.9954214393961</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K46" t="n">
-        <v>129.0132581705354</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L46" t="n">
-        <v>134.8846762812383</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>127.6855444652332</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>138.4565384518428</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>137.7280040491476</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q46" t="n">
-        <v>151.5050016294458</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R46" t="n">
         <v>177.2933913771695</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>169722.8443994691</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>180272.281100504</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>180410.1073307086</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>168755.2063118727</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>184990.0739259342</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>148156.0202707562</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>68252.30050368658</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>86048.36040653873</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>122684.0907304616</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>217614.6525080305</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>95631.06266985489</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>130672.3410894641</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>132935.3322211216</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144089.0087233852</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>69005.85061866768</v>
+        <v>376275.9193600624</v>
       </c>
     </row>
   </sheetData>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-48778.27397003476</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>-15150.67397003476</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_0.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-218750.5042824882</v>
+        <v>-104665.6458001496</v>
       </c>
     </row>
     <row r="7">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="C6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="D6" t="n">
-        <v>-48778.27397003476</v>
+        <v>-35142.66739700348</v>
       </c>
       <c r="E6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="F6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="G6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="H6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="I6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="J6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="K6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="L6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="M6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="N6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="O6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
       <c r="P6" t="n">
-        <v>-15150.67397003476</v>
+        <v>-1515.067397003476</v>
       </c>
     </row>
   </sheetData>
